--- a/FileGunBasin/9 August-04 StormBasin/SDDX - lsof commands - restart server.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/SDDX - lsof commands - restart server.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA47145C-F5F2-EE4A-B12C-95DE432AF0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFC5CC0-323D-7242-92EC-A59D413D47B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{8C9F6FED-0AF6-204C-8F86-E5B6B7529258}"/>
   </bookViews>
@@ -496,8 +496,8 @@
   <dimension ref="E1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/FileGunBasin/9 August-04 StormBasin/SDDX - lsof commands - restart server.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/SDDX - lsof commands - restart server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFC5CC0-323D-7242-92EC-A59D413D47B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D537ABC-209F-AC4B-863B-0C2738296577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{8C9F6FED-0AF6-204C-8F86-E5B6B7529258}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19340" xr2:uid="{8C9F6FED-0AF6-204C-8F86-E5B6B7529258}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -496,8 +496,8 @@
   <dimension ref="E1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/FileGunBasin/9 August-04 StormBasin/SDDX - lsof commands - restart server.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/SDDX - lsof commands - restart server.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D537ABC-209F-AC4B-863B-0C2738296577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8A25E4-4710-EA42-808B-E3D1CD762CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19340" xr2:uid="{8C9F6FED-0AF6-204C-8F86-E5B6B7529258}"/>
   </bookViews>
@@ -496,8 +496,8 @@
   <dimension ref="E1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/FileGunBasin/9 August-04 StormBasin/SDDX - lsof commands - restart server.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/SDDX - lsof commands - restart server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8A25E4-4710-EA42-808B-E3D1CD762CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5DAADE-A72E-824A-B57F-7D804C5D1755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19340" xr2:uid="{8C9F6FED-0AF6-204C-8F86-E5B6B7529258}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{8C9F6FED-0AF6-204C-8F86-E5B6B7529258}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/FileGunBasin/9 August-04 StormBasin/SDDX - lsof commands - restart server.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/SDDX - lsof commands - restart server.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5DAADE-A72E-824A-B57F-7D804C5D1755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7993C9-B5F4-4F41-8E21-13A3DC6294F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{8C9F6FED-0AF6-204C-8F86-E5B6B7529258}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -496,8 +496,8 @@
   <dimension ref="E1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/FileGunBasin/9 August-04 StormBasin/SDDX - lsof commands - restart server.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/SDDX - lsof commands - restart server.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7993C9-B5F4-4F41-8E21-13A3DC6294F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2264D1-34BD-AB44-B4C4-365863F8F5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{8C9F6FED-0AF6-204C-8F86-E5B6B7529258}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Here are the commands to check, kill, and restart processes on all three ports:</t>
   </si>
@@ -108,13 +108,22 @@
   </si>
   <si>
     <t xml:space="preserve">  you need.</t>
+  </si>
+  <si>
+    <t>Claude Code</t>
+  </si>
+  <si>
+    <t>Compacting conversation</t>
+  </si>
+  <si>
+    <t>bug</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -129,8 +138,29 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,6 +170,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14996795556505021"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -156,9 +192,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,17 +532,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4F4D34-F8A3-5B42-87B2-D93DB139CB4E}">
-  <dimension ref="E1:E46"/>
+  <dimension ref="E1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.83203125" customWidth="1"/>
     <col min="5" max="5" width="46.83203125" customWidth="1"/>
+    <col min="9" max="9" width="44.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -532,97 +572,223 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E20" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E21" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E22" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="5:11" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="E24" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="5:11" ht="37" x14ac:dyDescent="0.45">
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="5:11" ht="37" x14ac:dyDescent="0.45">
       <c r="E26" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E27" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E32" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E33" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="38" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E39" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E41" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E43" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E45" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E46" t="s">
         <v>23</v>
       </c>

--- a/FileGunBasin/9 August-04 StormBasin/SDDX - lsof commands - restart server.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/SDDX - lsof commands - restart server.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2264D1-34BD-AB44-B4C4-365863F8F5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FA20A1-855F-6A4F-B314-789CCF3E012F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{8C9F6FED-0AF6-204C-8F86-E5B6B7529258}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Here are the commands to check, kill, and restart processes on all three ports:</t>
   </si>
@@ -117,13 +117,19 @@
   </si>
   <si>
     <t>bug</t>
+  </si>
+  <si>
+    <t>https://chatgpt.com/c/68b3a89f-85d4-8330-b950-b907e3cde9ac</t>
+  </si>
+  <si>
+    <t>important chatcpt chat that FINALLY fixed the "compacting conversation" bug</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -155,6 +161,13 @@
     <font>
       <b/>
       <sz val="28"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
@@ -192,12 +205,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,11 +546,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4F4D34-F8A3-5B42-87B2-D93DB139CB4E}">
-  <dimension ref="E1:K46"/>
+  <dimension ref="E1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -547,59 +561,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E10" t="s">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="3" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="5:5" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E15" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E16" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="20" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="21" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E21" t="s">
-        <v>7</v>
-      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -609,7 +612,7 @@
     </row>
     <row r="22" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -619,6 +622,9 @@
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -626,65 +632,65 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="5:11" ht="47" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="5:11" ht="37" x14ac:dyDescent="0.45">
+    <row r="25" spans="5:11" x14ac:dyDescent="0.2">
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="5:11" ht="37" x14ac:dyDescent="0.45">
+    <row r="26" spans="5:11" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="E26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="4" t="s">
-        <v>26</v>
+      <c r="H26" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E27" t="s">
-        <v>11</v>
-      </c>
+    <row r="27" spans="5:11" ht="37" x14ac:dyDescent="0.45">
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="H27" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="5:11" ht="37" x14ac:dyDescent="0.45">
       <c r="E28" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="H28" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -694,7 +700,7 @@
     </row>
     <row r="30" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -713,7 +719,7 @@
     </row>
     <row r="32" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -723,9 +729,6 @@
       <c r="K32" s="2"/>
     </row>
     <row r="33" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E33" t="s">
-        <v>15</v>
-      </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -734,6 +737,9 @@
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -743,7 +749,7 @@
     </row>
     <row r="35" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -753,9 +759,6 @@
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E36" t="s">
-        <v>17</v>
-      </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -763,33 +766,55 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
+    <row r="37" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+    </row>
     <row r="38" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+    </row>
+    <row r="40" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E39" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="41" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E46" t="s">
+    <row r="48" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
         <v>23</v>
       </c>
     </row>

--- a/FileGunBasin/9 August-04 StormBasin/SDDX - lsof commands - restart server.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/SDDX - lsof commands - restart server.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FA20A1-855F-6A4F-B314-789CCF3E012F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786257D6-FCDB-8243-AB16-054EA0877168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{8C9F6FED-0AF6-204C-8F86-E5B6B7529258}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Here are the commands to check, kill, and restart processes on all three ports:</t>
   </si>
@@ -123,13 +123,19 @@
   </si>
   <si>
     <t>important chatcpt chat that FINALLY fixed the "compacting conversation" bug</t>
+  </si>
+  <si>
+    <t>next second chat</t>
+  </si>
+  <si>
+    <t>https://chatgpt.com/c/68bf01d5-abd0-8320-85f5-ea5825be5656</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -172,6 +178,14 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -202,18 +216,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -550,7 +568,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -562,13 +580,23 @@
   <sheetData>
     <row r="1" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E3" t="s">
+      <c r="E3" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E4" t="s">
+      <c r="E4" s="6" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E6" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="5:5" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -819,6 +847,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{CAB99603-D990-C743-BDAA-B8ED349F508E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/FileGunBasin/9 August-04 StormBasin/SDDX - lsof commands - restart server.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/SDDX - lsof commands - restart server.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786257D6-FCDB-8243-AB16-054EA0877168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA2A2E2-5B99-3F4E-8E2F-C3810447B98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{8C9F6FED-0AF6-204C-8F86-E5B6B7529258}"/>
   </bookViews>
@@ -567,8 +567,8 @@
   <dimension ref="E1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
